--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2896.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2896.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.210768567218368</v>
+        <v>1.738864421844482</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.843623876571655</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.990047097206116</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.850121974945068</v>
       </c>
       <c r="E1">
-        <v>1.200883896614452</v>
+        <v>3.397604942321777</v>
       </c>
     </row>
   </sheetData>
